--- a/References/excel/創作者虛擬資料 2024-11-04-Darky.xlsx
+++ b/References/excel/創作者虛擬資料 2024-11-04-Darky.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Artists_treasure\References\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C2120-3E59-4527-AF0D-8123A58C8571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B7D85D-3B37-4652-A3BA-723C32F7F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{828979E3-6808-4AAD-AD86-3558351D8402}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{828979E3-6808-4AAD-AD86-3558351D8402}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>範例資料</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,22 +117,6 @@
   </si>
   <si>
     <t>介紹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK_TIMES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已展覽次數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK_RACETIMES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已比賽次數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -649,7 +633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -671,13 +655,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -774,11 +751,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,13 +771,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -818,13 +792,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,13 +1116,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DA6E4-BA0B-41B5-8C69-2E3E7796A4C0}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
@@ -1170,7 +1144,7 @@
     <col min="24" max="24" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1181,279 +1155,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>45560</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>45560</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>45560</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>45560</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>45560</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>45560</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>45560</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>45560</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>45560</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>45560</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>45577</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>45577</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>45577</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <v>45577</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <v>45577</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>45600</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>45601</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="9">
         <v>45602</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>45603</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="9">
         <v>45604</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="M4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>72</v>
+      <c r="E5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1461,653 +1435,557 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="7">
+        <v>82114</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="8">
-        <v>82114</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="6" t="s">
+      <c r="O6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="8">
+      <c r="T6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="7">
         <v>50103</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>109</v>
+      <c r="V6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1888</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1888</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1888</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>1889</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>1888</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>1885</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1885</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>1888</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>1890</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>1888</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>1888</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>1889</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>1889</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>1889</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>1889</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>1889</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>1890</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>1888</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>1889</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>1888</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>9</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>8</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>9</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>10</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>6</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>5</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>7</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>9</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>4</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>6</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>8</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>7</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>9</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>2</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>1</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>116</v>
+      <c r="E9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="129.6">
+    <row r="10" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="U10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" s="11" t="s">
+      <c r="W10" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="X10" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1</v>
-      </c>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6">
-        <v>1</v>
-      </c>
-      <c r="X11" s="6">
-        <v>1</v>
+      <c r="E11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="32.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>110</v>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
